--- a/참고.xlsx
+++ b/참고.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8d90e814b650d277/바탕 화면/Portfolio/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8d90e814b650d277/바탕 화면/portfolio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="106" documentId="8_{BA649BD3-49C3-42FA-914C-A081160BAA9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B75F0C49-8CD9-47F2-B579-C594044EA08C}"/>
+  <xr:revisionPtr revIDLastSave="112" documentId="8_{BA649BD3-49C3-42FA-914C-A081160BAA9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61C93948-31BC-458E-80D9-66D018288F47}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{D23BD483-DDF6-4C71-A3EE-C94755D2F8F1}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="18648" windowHeight="11184" activeTab="1" xr2:uid="{D23BD483-DDF6-4C71-A3EE-C94755D2F8F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Portfolio" sheetId="2" r:id="rId1"/>
-    <sheet name="Portfolio수정사항" sheetId="4" r:id="rId2"/>
-    <sheet name="Project1" sheetId="3" r:id="rId3"/>
-    <sheet name="웹시안참고" sheetId="1" r:id="rId4"/>
+    <sheet name="Project1" sheetId="3" r:id="rId2"/>
+    <sheet name="웹시안참고" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>무료 웹시안</t>
   </si>
@@ -125,22 +124,6 @@
         정돈된 코딩과, 전문성을 가질 수 있는 개발자가 되기 위해 노력 
         진행중 -&gt; 진행중 (로딩중 디자인 사용하기)
         입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>추가 수정사항</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. Main 글자부분 애니메이션 효과 넣기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. Menu 스크롤에 따라 변화 넣기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3. Project 남은 사항 추가적으로 넣기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -751,49 +734,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B29BB21-3B43-4B3C-8F58-A3CFC790A416}">
-  <dimension ref="B2:B5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="2" max="2" width="35.19921875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69A0BFAE-85EA-4977-842E-326384B649A8}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
@@ -802,7 +748,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85EB2B28-3424-445B-907F-019E5E74E996}">
   <dimension ref="B1:D4"/>
   <sheetViews>

--- a/참고.xlsx
+++ b/참고.xlsx
@@ -5,17 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8d90e814b650d277/바탕 화면/portfolio/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82105\OneDrive\바탕 화면\portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="112" documentId="8_{BA649BD3-49C3-42FA-914C-A081160BAA9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61C93948-31BC-458E-80D9-66D018288F47}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C09921DA-C399-4942-A84C-21E874008749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="18648" windowHeight="11184" activeTab="1" xr2:uid="{D23BD483-DDF6-4C71-A3EE-C94755D2F8F1}"/>
+    <workbookView xWindow="3300" yWindow="996" windowWidth="18648" windowHeight="11184" activeTab="1" xr2:uid="{D23BD483-DDF6-4C71-A3EE-C94755D2F8F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Portfolio" sheetId="2" r:id="rId1"/>
-    <sheet name="Project1" sheetId="3" r:id="rId2"/>
-    <sheet name="웹시안참고" sheetId="1" r:id="rId3"/>
+    <sheet name="웹시안참고" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -734,26 +733,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69A0BFAE-85EA-4977-842E-326384B649A8}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85EB2B28-3424-445B-907F-019E5E74E996}">
   <dimension ref="B1:D4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
